--- a/docs/ifr.xlsx
+++ b/docs/ifr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="90">
   <si>
     <t>Path</t>
   </si>
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %resource.contained.id.trace('ids'))}</t>
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
@@ -212,6 +212,10 @@
     <t>Element.extension</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Reference.reference</t>
   </si>
   <si>
@@ -228,6 +232,10 @@
   </si>
   <si>
     <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -895,7 +903,7 @@
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>52</v>
@@ -903,7 +911,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -923,19 +931,19 @@
         <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -985,7 +993,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
@@ -994,18 +1002,18 @@
         <v>47</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1025,19 +1033,19 @@
         <v>37</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1063,13 +1071,13 @@
         <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>37</v>
@@ -1087,7 +1095,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1099,15 +1107,15 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1127,19 +1135,19 @@
         <v>37</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -1189,7 +1197,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1201,15 +1209,15 @@
         <v>37</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1229,19 +1237,19 @@
         <v>37</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1291,7 +1299,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1303,10 +1311,10 @@
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
